--- a/artfynd/A 9195-2022.xlsx
+++ b/artfynd/A 9195-2022.xlsx
@@ -811,10 +811,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>82582306</v>
+        <v>82582315</v>
       </c>
       <c r="B3" t="n">
-        <v>56540</v>
+        <v>78503</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -823,47 +823,41 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>103021</v>
+        <v>6456</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
-        </is>
-      </c>
+          <t>(Dicks.) Nyl.</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
           <t>Fårberget, Flurkmark, Vb</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>753360.0359228274</v>
+        <v>753321.1124713765</v>
       </c>
       <c r="R3" t="n">
-        <v>7104931.737160992</v>
+        <v>7105078.927651457</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -914,8 +908,24 @@
       <c r="AE3" t="b">
         <v>0</v>
       </c>
+      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>asp</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>Populus tremula</t>
+        </is>
+      </c>
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>Populus tremula</t>
+        </is>
       </c>
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
@@ -932,10 +942,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>82582315</v>
+        <v>82582330</v>
       </c>
       <c r="B4" t="n">
-        <v>78503</v>
+        <v>78569</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -944,41 +954,38 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6456</v>
+        <v>6458</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
           <t>Fårberget, Flurkmark, Vb</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>753321.1124713765</v>
+        <v>753315.8283950388</v>
       </c>
       <c r="R4" t="n">
-        <v>7105078.927651457</v>
+        <v>7105197.987471971</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1029,23 +1036,22 @@
       <c r="AE4" t="b">
         <v>0</v>
       </c>
-      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>asp</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>Populus tremula</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>Populus tremula</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr"/>
@@ -1063,10 +1069,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>82582330</v>
+        <v>82582306</v>
       </c>
       <c r="B5" t="n">
-        <v>78569</v>
+        <v>56540</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1079,34 +1085,43 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6458</v>
+        <v>103021</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
       <c r="P5" t="inlineStr">
         <is>
           <t>Fårberget, Flurkmark, Vb</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>753315.8283950388</v>
+        <v>753360.0359228274</v>
       </c>
       <c r="R5" t="n">
-        <v>7105197.987471971</v>
+        <v>7104931.737160992</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1159,21 +1174,6 @@
       </c>
       <c r="AG5" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ5" t="inlineStr">
-        <is>
-          <t>sälg</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
-      <c r="AO5" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
       </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">

--- a/artfynd/A 9195-2022.xlsx
+++ b/artfynd/A 9195-2022.xlsx
@@ -811,10 +811,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>82582315</v>
+        <v>82582306</v>
       </c>
       <c r="B3" t="n">
-        <v>78503</v>
+        <v>56540</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -823,41 +823,47 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6456</v>
+        <v>103021</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
       <c r="P3" t="inlineStr">
         <is>
           <t>Fårberget, Flurkmark, Vb</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>753321.1124713765</v>
+        <v>753360.0359228274</v>
       </c>
       <c r="R3" t="n">
-        <v>7105078.927651457</v>
+        <v>7104931.737160992</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -908,24 +914,8 @@
       <c r="AE3" t="b">
         <v>0</v>
       </c>
-      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ3" t="inlineStr">
-        <is>
-          <t>asp</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>Populus tremula</t>
-        </is>
-      </c>
-      <c r="AO3" t="inlineStr">
-        <is>
-          <t>Populus tremula</t>
-        </is>
       </c>
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
@@ -942,10 +932,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>82582330</v>
+        <v>82582315</v>
       </c>
       <c r="B4" t="n">
-        <v>78569</v>
+        <v>78503</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -954,38 +944,41 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6458</v>
+        <v>6456</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
           <t>Fårberget, Flurkmark, Vb</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>753315.8283950388</v>
+        <v>753321.1124713765</v>
       </c>
       <c r="R4" t="n">
-        <v>7105197.987471971</v>
+        <v>7105078.927651457</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1036,22 +1029,23 @@
       <c r="AE4" t="b">
         <v>0</v>
       </c>
+      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>asp</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Populus tremula</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Populus tremula</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr"/>
@@ -1069,10 +1063,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>82582306</v>
+        <v>82582330</v>
       </c>
       <c r="B5" t="n">
-        <v>56540</v>
+        <v>78569</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1085,43 +1079,34 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>103021</v>
+        <v>6458</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
-        </is>
-      </c>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
           <t>Fårberget, Flurkmark, Vb</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>753360.0359228274</v>
+        <v>753315.8283950388</v>
       </c>
       <c r="R5" t="n">
-        <v>7104931.737160992</v>
+        <v>7105197.987471971</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1174,6 +1159,21 @@
       </c>
       <c r="AG5" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ5" t="inlineStr">
+        <is>
+          <t>sälg</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
       </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
